--- a/run/output/ieduplicates/foo.xlsx
+++ b/run/output/ieduplicates/foo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="43" uniqueCount="19">
   <si>
     <t>uuid</t>
   </si>
@@ -33,76 +33,19 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>correct</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>newid</t>
   </si>
   <si>
     <t>initials</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>make</t>
@@ -132,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -171,8 +114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -189,25 +135,25 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -224,23 +170,23 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -254,26 +200,26 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -287,26 +233,26 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -320,26 +266,26 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
